--- a/data/metadata/Informe-03-030004-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-03-030004-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>residencia-comarca-codigo</t>
   </si>
@@ -58,27 +58,30 @@
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
+    <t>iaest-measure:residencia-comarca-nombre</t>
   </si>
   <si>
     <t>iaest-measure:personas</t>
   </si>
   <si>
-    <t>iaest-dimension:edad-grupos-quinquenales</t>
-  </si>
-  <si>
-    <t>iaest-dimension:residencia-ccaa-nombre</t>
+    <t>iaest-measure:edad-grupos-quinquenales</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-ccaa-nombre</t>
   </si>
   <si>
     <t>iaest-measure:porcentaje</t>
   </si>
   <si>
-    <t>iaest-dimension:sexo</t>
+    <t>iaest-measure:sexo</t>
   </si>
   <si>
     <t>iaest-measure:residencia-municipio-nombre</t>
   </si>
   <si>
+    <t>iaest-measure:residencia-provincia-nombre</t>
+  </si>
+  <si>
     <t>dim</t>
   </si>
   <si>
@@ -88,25 +91,10 @@
     <t>skos:Concept</t>
   </si>
   <si>
-    <t>URI-comarca</t>
-  </si>
-  <si>
     <t>xsd:int</t>
   </si>
   <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-edad-grupos-quinquenales.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-residencia-ccaa-nombre.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sexo.xlsx</t>
   </si>
 </sst>
 </file>
@@ -245,7 +233,7 @@
         <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -253,19 +241,19 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
@@ -277,16 +265,16 @@
         <v>13</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -294,19 +282,19 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
@@ -321,27 +309,18 @@
         <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-03-030004-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-03-030004-A-TC-TM-TP.xlsx
@@ -11,87 +11,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
-  <si>
-    <t>residencia-comarca-codigo</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>residencia-comarca-nombre</t>
-  </si>
-  <si>
-    <t>personas</t>
-  </si>
-  <si>
-    <t>edad-grupos-quinquenales</t>
-  </si>
-  <si>
-    <t>residencia-ccaa-nombre</t>
-  </si>
-  <si>
-    <t>residencia-municipio-codigo</t>
-  </si>
-  <si>
-    <t>residencia-ccaa-codigo</t>
-  </si>
-  <si>
-    <t>residencia-provincia-codigo</t>
-  </si>
-  <si>
-    <t>porcentaje</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>residencia-municipio-nombre</t>
-  </si>
-  <si>
-    <t>residencia-provincia-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t>Residencia comarca código</t>
+  </si>
+  <si>
+    <t>Residencia CCAA nombre</t>
+  </si>
+  <si>
+    <t>Residencia provincia nombre</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Residencia CCAA código</t>
+  </si>
+  <si>
+    <t>Edad (grupos quinquenales)</t>
+  </si>
+  <si>
+    <t>Residencia municipio código</t>
+  </si>
+  <si>
+    <t>Residencia provincia código</t>
+  </si>
+  <si>
+    <t>Residencia municipio nombre</t>
+  </si>
+  <si>
+    <t>Residencia comarca nombre</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
+    <t>iaest-measure:residencia-ccaa-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-provincia-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:porcentaje</t>
+  </si>
+  <si>
+    <t>iaest-measure:sexo</t>
+  </si>
+  <si>
+    <t>iaest-measure:edad-grupos-quinquenales</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-municipio-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-comarca-nombre</t>
+  </si>
+  <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:residencia-comarca-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas</t>
-  </si>
-  <si>
-    <t>iaest-measure:edad-grupos-quinquenales</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencia-ccaa-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:porcentaje</t>
-  </si>
-  <si>
-    <t>iaest-measure:sexo</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencia-municipio-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencia-provincia-nombre</t>
+    <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
-    <t>medida</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
     <t>xsd:int</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -215,16 +221,16 @@
         <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>20</v>
@@ -238,40 +244,40 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>24</v>
@@ -279,10 +285,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
@@ -291,22 +297,22 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>26</v>
@@ -315,12 +321,12 @@
         <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
-        <v>27</v>
+      <c r="M5" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
